--- a/analysis/5.1/td_0.02s.xlsx
+++ b/analysis/5.1/td_0.02s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -102,18 +102,18 @@
         <v>10.1</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C2">
         <v>0.02</v>
       </c>
       <c r="D2">
-        <v>321.53479999999524</v>
+        <v>452.95600000000042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B3">
         <v>1.1000000000000001</v>
@@ -122,7 +122,7 @@
         <v>0.02</v>
       </c>
       <c r="D3">
-        <v>278.49432000000343</v>
+        <v>321.53479999999524</v>
       </c>
     </row>
     <row r="4">
@@ -130,13 +130,13 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B4">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.02</v>
       </c>
       <c r="D4">
-        <v>284.72559999999862</v>
+        <v>423.43448000000336</v>
       </c>
     </row>
     <row r="5">
@@ -144,41 +144,41 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B5">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5">
         <v>0.02</v>
       </c>
       <c r="D5">
-        <v>302.23920000000021</v>
+        <v>278.49432000000343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B6">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C6">
         <v>0.02</v>
       </c>
       <c r="D6">
-        <v>273.37300000000067</v>
+        <v>284.72559999999862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B7">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C7">
         <v>0.02</v>
       </c>
       <c r="D7">
-        <v>270.81287999999961</v>
+        <v>302.23920000000021</v>
       </c>
     </row>
     <row r="8">
@@ -186,13 +186,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C8">
         <v>0.02</v>
       </c>
       <c r="D8">
-        <v>273.852760000003</v>
+        <v>273.37300000000067</v>
       </c>
     </row>
     <row r="9">
@@ -200,13 +200,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.02</v>
       </c>
       <c r="D9">
-        <v>265.69264000000192</v>
+        <v>270.81287999999961</v>
       </c>
     </row>
     <row r="10">
@@ -214,41 +214,41 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.02</v>
       </c>
       <c r="D10">
-        <v>249.01048000000202</v>
+        <v>273.852760000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B11">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C11">
         <v>0.02</v>
       </c>
       <c r="D11">
-        <v>244.08040000000088</v>
+        <v>265.69264000000192</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B12">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C12">
         <v>0.02</v>
       </c>
       <c r="D12">
-        <v>237.53311999999926</v>
+        <v>249.01048000000202</v>
       </c>
     </row>
     <row r="13">
@@ -256,13 +256,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C13">
         <v>0.02</v>
       </c>
       <c r="D13">
-        <v>276.43144000000029</v>
+        <v>244.08040000000088</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.02</v>
       </c>
       <c r="D14">
-        <v>276.63131999999916</v>
+        <v>237.53311999999926</v>
       </c>
     </row>
     <row r="15">
@@ -284,13 +284,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C15">
         <v>0.02</v>
       </c>
       <c r="D15">
-        <v>276.63115999999928</v>
+        <v>276.43144000000029</v>
       </c>
     </row>
     <row r="16">
@@ -298,41 +298,41 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B16">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C16">
         <v>0.02</v>
       </c>
       <c r="D16">
-        <v>278.63104000000266</v>
+        <v>276.63131999999916</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B17">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C17">
         <v>0.02</v>
       </c>
       <c r="D17">
-        <v>231.5993999999996</v>
+        <v>276.63115999999928</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B18">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C18">
         <v>0.02</v>
       </c>
       <c r="D18">
-        <v>216.55253333333121</v>
+        <v>278.63104000000266</v>
       </c>
     </row>
     <row r="19">
@@ -340,13 +340,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C19">
         <v>0.02</v>
       </c>
       <c r="D19">
-        <v>275.17019999999968</v>
+        <v>231.5993999999996</v>
       </c>
     </row>
     <row r="20">
@@ -354,13 +354,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C20">
         <v>0.02</v>
       </c>
       <c r="D20">
-        <v>251.55373333333347</v>
+        <v>216.55253333333121</v>
       </c>
     </row>
     <row r="21">
@@ -368,13 +368,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B21">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C21">
         <v>0.02</v>
       </c>
       <c r="D21">
-        <v>277.38996000000202</v>
+        <v>275.17019999999968</v>
       </c>
     </row>
     <row r="22">
@@ -382,13 +382,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B22">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C22">
         <v>0.02</v>
       </c>
       <c r="D22">
-        <v>276.36984000000098</v>
+        <v>251.55373333333347</v>
       </c>
     </row>
     <row r="23">
@@ -396,41 +396,41 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B23">
-        <v>6.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C23">
         <v>0.02</v>
       </c>
       <c r="D23">
-        <v>277.3297199999999</v>
+        <v>277.38996000000202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B24">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C24">
         <v>0.02</v>
       </c>
       <c r="D24">
-        <v>231.54847999999791</v>
+        <v>276.36984000000098</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B25">
-        <v>1.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C25">
         <v>0.02</v>
       </c>
       <c r="D25">
-        <v>277.34916000000237</v>
+        <v>277.3297199999999</v>
       </c>
     </row>
     <row r="26">
@@ -438,13 +438,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B26">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C26">
         <v>0.02</v>
       </c>
       <c r="D26">
-        <v>212.40719999999709</v>
+        <v>231.54847999999791</v>
       </c>
     </row>
     <row r="27">
@@ -452,13 +452,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B27">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C27">
         <v>0.02</v>
       </c>
       <c r="D27">
-        <v>275.50892000000027</v>
+        <v>277.34916000000237</v>
       </c>
     </row>
     <row r="28">
@@ -466,13 +466,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B28">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C28">
         <v>0.02</v>
       </c>
       <c r="D28">
-        <v>221.5666666666678</v>
+        <v>212.40719999999709</v>
       </c>
     </row>
     <row r="29">
@@ -480,13 +480,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B29">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C29">
         <v>0.02</v>
       </c>
       <c r="D29">
-        <v>240.49869999999908</v>
+        <v>275.50892000000027</v>
       </c>
     </row>
     <row r="30">
@@ -494,41 +494,41 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B30">
-        <v>6.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C30">
         <v>0.02</v>
       </c>
       <c r="D30">
-        <v>245.36860000000041</v>
+        <v>221.5666666666678</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B31">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C31">
         <v>0.02</v>
       </c>
       <c r="D31">
-        <v>227.44279999999958</v>
+        <v>240.49869999999908</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B32">
-        <v>1.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C32">
         <v>0.02</v>
       </c>
       <c r="D32">
-        <v>195.48808000000173</v>
+        <v>245.36860000000041</v>
       </c>
     </row>
     <row r="33">
@@ -536,13 +536,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B33">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C33">
         <v>0.02</v>
       </c>
       <c r="D33">
-        <v>210.50591999999961</v>
+        <v>227.44279999999958</v>
       </c>
     </row>
     <row r="34">
@@ -550,13 +550,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B34">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C34">
         <v>0.02</v>
       </c>
       <c r="D34">
-        <v>200.56367272727391</v>
+        <v>195.48808000000173</v>
       </c>
     </row>
     <row r="35">
@@ -564,13 +564,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B35">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C35">
         <v>0.02</v>
       </c>
       <c r="D35">
-        <v>212.71506666666761</v>
+        <v>210.50591999999961</v>
       </c>
     </row>
     <row r="36">
@@ -578,13 +578,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B36">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C36">
         <v>0.02</v>
       </c>
       <c r="D36">
-        <v>201.2783999999929</v>
+        <v>200.56367272727391</v>
       </c>
     </row>
     <row r="37">
@@ -592,41 +592,41 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B37">
-        <v>6.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C37">
         <v>0.02</v>
       </c>
       <c r="D37">
-        <v>200.38512000000014</v>
+        <v>212.71506666666761</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B38">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C38">
         <v>0.02</v>
       </c>
       <c r="D38">
-        <v>200.46365714285793</v>
+        <v>201.2783999999929</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B39">
-        <v>1.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C39">
         <v>0.02</v>
       </c>
       <c r="D39">
-        <v>226.59497142857111</v>
+        <v>200.38512000000014</v>
       </c>
     </row>
     <row r="40">
@@ -634,13 +634,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B40">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C40">
         <v>0.02</v>
       </c>
       <c r="D40">
-        <v>212.61495999999948</v>
+        <v>200.46365714285793</v>
       </c>
     </row>
     <row r="41">
@@ -648,13 +648,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B41">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C41">
         <v>0.02</v>
       </c>
       <c r="D41">
-        <v>194.66688000000005</v>
+        <v>226.59497142857111</v>
       </c>
     </row>
     <row r="42">
@@ -662,13 +662,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B42">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C42">
         <v>0.02</v>
       </c>
       <c r="D42">
-        <v>209.60066666666503</v>
+        <v>212.61495999999948</v>
       </c>
     </row>
     <row r="43">
@@ -676,13 +676,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B43">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C43">
         <v>0.02</v>
       </c>
       <c r="D43">
-        <v>226.3642666666687</v>
+        <v>194.66688000000005</v>
       </c>
     </row>
     <row r="44">
@@ -690,41 +690,41 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B44">
-        <v>6.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C44">
         <v>0.02</v>
       </c>
       <c r="D44">
-        <v>209.61275000000097</v>
+        <v>209.60066666666503</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B45">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C45">
         <v>0.02</v>
       </c>
       <c r="D45">
-        <v>199.41447999999889</v>
+        <v>226.3642666666687</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B46">
-        <v>1.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C46">
         <v>0.02</v>
       </c>
       <c r="D46">
-        <v>194.12616000000261</v>
+        <v>209.61275000000097</v>
       </c>
     </row>
     <row r="47">
@@ -732,13 +732,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B47">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C47">
         <v>0.02</v>
       </c>
       <c r="D47">
-        <v>194.30403999999999</v>
+        <v>199.41447999999889</v>
       </c>
     </row>
     <row r="48">
@@ -746,13 +746,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B48">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C48">
         <v>0.02</v>
       </c>
       <c r="D48">
-        <v>194.30600000000265</v>
+        <v>194.12616000000261</v>
       </c>
     </row>
     <row r="49">
@@ -760,13 +760,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B49">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C49">
         <v>0.02</v>
       </c>
       <c r="D49">
-        <v>194.24588000000159</v>
+        <v>194.30403999999999</v>
       </c>
     </row>
     <row r="50">
@@ -774,13 +774,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B50">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C50">
         <v>0.02</v>
       </c>
       <c r="D50">
-        <v>198.7200000000002</v>
+        <v>194.30600000000265</v>
       </c>
     </row>
     <row r="51">
@@ -788,41 +788,41 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B51">
-        <v>6.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C51">
         <v>0.02</v>
       </c>
       <c r="D51">
-        <v>226.48144000000246</v>
+        <v>194.24588000000159</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B52">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C52">
         <v>0.02</v>
       </c>
       <c r="D52">
-        <v>198.516977777779</v>
+        <v>198.7200000000002</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B53">
-        <v>1.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C53">
         <v>0.02</v>
       </c>
       <c r="D53">
-        <v>198.50804444444393</v>
+        <v>226.48144000000246</v>
       </c>
     </row>
     <row r="54">
@@ -830,13 +830,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B54">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C54">
         <v>0.02</v>
       </c>
       <c r="D54">
-        <v>198.54872727272894</v>
+        <v>198.516977777779</v>
       </c>
     </row>
     <row r="55">
@@ -844,13 +844,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B55">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C55">
         <v>0.02</v>
       </c>
       <c r="D55">
-        <v>198.38863999999779</v>
+        <v>198.50804444444393</v>
       </c>
     </row>
     <row r="56">
@@ -858,13 +858,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B56">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C56">
         <v>0.02</v>
       </c>
       <c r="D56">
-        <v>198.42382857142769</v>
+        <v>198.54872727272894</v>
       </c>
     </row>
     <row r="57">
@@ -872,13 +872,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B57">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C57">
         <v>0.02</v>
       </c>
       <c r="D57">
-        <v>193.62519999999859</v>
+        <v>198.38863999999779</v>
       </c>
     </row>
     <row r="58">
@@ -886,41 +886,41 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B58">
-        <v>6.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C58">
         <v>0.02</v>
       </c>
       <c r="D58">
-        <v>193.50515999999971</v>
+        <v>198.42382857142769</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B59">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C59">
         <v>0.02</v>
       </c>
       <c r="D59">
-        <v>197.45693333333244</v>
+        <v>193.62519999999859</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B60">
-        <v>1.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C60">
         <v>0.02</v>
       </c>
       <c r="D60">
-        <v>197.45686666666396</v>
+        <v>193.50515999999971</v>
       </c>
     </row>
     <row r="61">
@@ -928,13 +928,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B61">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C61">
         <v>0.02</v>
       </c>
       <c r="D61">
-        <v>192.42483999999985</v>
+        <v>197.45693333333244</v>
       </c>
     </row>
     <row r="62">
@@ -942,13 +942,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B62">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C62">
         <v>0.02</v>
       </c>
       <c r="D62">
-        <v>192.54480000000098</v>
+        <v>197.45686666666396</v>
       </c>
     </row>
     <row r="63">
@@ -956,13 +956,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B63">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C63">
         <v>0.02</v>
       </c>
       <c r="D63">
-        <v>197.41993333333264</v>
+        <v>192.42483999999985</v>
       </c>
     </row>
     <row r="64">
@@ -970,41 +970,41 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B64">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C64">
         <v>0.02</v>
       </c>
       <c r="D64">
-        <v>197.38986666666599</v>
+        <v>192.54480000000098</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B65">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C65">
         <v>0.02</v>
       </c>
       <c r="D65">
-        <v>188.33364444444467</v>
+        <v>197.41993333333264</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B66">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C66">
         <v>0.02</v>
       </c>
       <c r="D66">
-        <v>187.73001739130444</v>
+        <v>197.38986666666599</v>
       </c>
     </row>
     <row r="67">
@@ -1012,13 +1012,13 @@
         <v>120.09999999999999</v>
       </c>
       <c r="B67">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C67">
         <v>0.02</v>
       </c>
       <c r="D67">
-        <v>188.35039999999978</v>
+        <v>188.33364444444467</v>
       </c>
     </row>
     <row r="68">
@@ -1026,26 +1026,54 @@
         <v>120.09999999999999</v>
       </c>
       <c r="B68">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C68">
         <v>0.02</v>
       </c>
       <c r="D68">
-        <v>192.16436000000007</v>
+        <v>187.73001739130444</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B69">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.02</v>
+      </c>
+      <c r="D69">
+        <v>188.35039999999978</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B70">
+        <v>3.1000000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.02</v>
+      </c>
+      <c r="D70">
+        <v>192.16436000000007</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
         <v>130.09999999999999</v>
       </c>
-      <c r="B69">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="C69">
-        <v>0.02</v>
-      </c>
-      <c r="D69">
+      <c r="B71">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.02</v>
+      </c>
+      <c r="D71">
         <v>187.66203076923077</v>
       </c>
     </row>
